--- a/results/FrequencyTables/27068471_EnvT1.xlsx
+++ b/results/FrequencyTables/27068471_EnvT1.xlsx
@@ -465,73 +465,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.17</v>
+        <v>0.0155857214680744</v>
       </c>
       <c r="C2">
-        <v>0.24</v>
+        <v>0.0816155522037875</v>
       </c>
       <c r="D2">
-        <v>0.82</v>
+        <v>0.601307189542484</v>
       </c>
       <c r="E2">
-        <v>0.01</v>
+        <v>0.036701860231272</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.0583207642031171</v>
       </c>
       <c r="G2">
-        <v>0.8</v>
+        <v>0.840958605664488</v>
       </c>
       <c r="H2">
-        <v>0.09</v>
+        <v>0.0717278364337188</v>
       </c>
       <c r="I2">
-        <v>0.12</v>
+        <v>0.0554717613541143</v>
       </c>
       <c r="J2">
-        <v>0.72</v>
+        <v>0.772079772079772</v>
       </c>
       <c r="K2">
-        <v>0.22</v>
+        <v>0.0827886710239651</v>
       </c>
       <c r="L2">
-        <v>0.18</v>
+        <v>0.0261437908496732</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.0110608345902464</v>
       </c>
       <c r="N2">
-        <v>0.29</v>
+        <v>0.173956762192056</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.00251382604323781</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.00452488687782805</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.000837942014412603</v>
       </c>
       <c r="R2">
-        <v>0.96</v>
+        <v>0.955086308027485</v>
       </c>
       <c r="S2">
-        <v>0.17</v>
+        <v>0.191385956091838</v>
       </c>
       <c r="T2">
-        <v>0.77</v>
+        <v>0.957935310876487</v>
       </c>
       <c r="U2">
-        <v>0.06</v>
+        <v>0.0259762024467907</v>
       </c>
       <c r="V2">
-        <v>0.13</v>
+        <v>0.0888218535277359</v>
       </c>
       <c r="W2">
-        <v>0.06</v>
+        <v>0.0469247528071058</v>
       </c>
       <c r="X2">
-        <v>0.13</v>
+        <v>0.0112284229931289</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,73 +539,73 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.05</v>
+        <v>0.0884866767219708</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.032512150159209</v>
       </c>
       <c r="D3">
-        <v>0.06</v>
+        <v>0.0315066197419139</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.0264789676554382</v>
       </c>
       <c r="F3">
-        <v>0.71</v>
+        <v>0.841461370873136</v>
       </c>
       <c r="G3">
-        <v>0.07</v>
+        <v>0.0135746606334842</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0229596111949053</v>
       </c>
       <c r="I3">
-        <v>0.75</v>
+        <v>0.756326462208815</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.0422322775263952</v>
       </c>
       <c r="K3">
-        <v>0.54</v>
+        <v>0.844310373722138</v>
       </c>
       <c r="L3">
-        <v>0.11</v>
+        <v>0.00553041729512318</v>
       </c>
       <c r="M3">
-        <v>0.01</v>
+        <v>0.00955253896430367</v>
       </c>
       <c r="N3">
-        <v>0.17</v>
+        <v>0.0338528573822691</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.000670353611530082</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.000335176805765041</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>0.000335176805765041</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.0194402547343724</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.0333500921736216</v>
       </c>
       <c r="T3">
-        <v>0.19</v>
+        <v>0.00620077090665326</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>0.00703871292106586</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.011898776604659</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.00100553041729512</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>0.00134070722306016</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,73 +613,73 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.14</v>
+        <v>0.110440757499581</v>
       </c>
       <c r="C4">
-        <v>0.06</v>
+        <v>0.0430702195408078</v>
       </c>
       <c r="D4">
-        <v>0.06</v>
+        <v>0.350092173621585</v>
       </c>
       <c r="E4">
-        <v>0.01</v>
+        <v>0.156192391486509</v>
       </c>
       <c r="F4">
-        <v>0.11</v>
+        <v>0.0397184514831574</v>
       </c>
       <c r="G4">
-        <v>0.07</v>
+        <v>0.0806100217864924</v>
       </c>
       <c r="H4">
-        <v>0.73</v>
+        <v>0.852187028657617</v>
       </c>
       <c r="I4">
-        <v>0.01</v>
+        <v>0.0854700854700855</v>
       </c>
       <c r="J4">
-        <v>0.22</v>
+        <v>0.141277023629965</v>
       </c>
       <c r="K4">
-        <v>0.24</v>
+        <v>0.0378749790514496</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.0221216691804927</v>
       </c>
       <c r="M4">
-        <v>0.31</v>
+        <v>0.22071392659628</v>
       </c>
       <c r="N4">
-        <v>0.34</v>
+        <v>0.746941511647394</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.00117311882017764</v>
       </c>
       <c r="P4">
-        <v>0.99</v>
+        <v>0.985587397352103</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0.996983408748115</v>
       </c>
       <c r="R4">
-        <v>0.01</v>
+        <v>0.0212837271660801</v>
       </c>
       <c r="S4">
-        <v>0.83</v>
+        <v>0.757499581028993</v>
       </c>
       <c r="T4">
-        <v>0.04</v>
+        <v>0.0326797385620915</v>
       </c>
       <c r="U4">
-        <v>0.25</v>
+        <v>0.280542986425339</v>
       </c>
       <c r="V4">
-        <v>0.87</v>
+        <v>0.897938662644545</v>
       </c>
       <c r="W4">
-        <v>0.87</v>
+        <v>0.934137757667169</v>
       </c>
       <c r="X4">
-        <v>0.85</v>
+        <v>0.980559745265628</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,73 +687,73 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.64</v>
+        <v>0.782637841461371</v>
       </c>
       <c r="C5">
-        <v>0.7</v>
+        <v>0.841964136081783</v>
       </c>
       <c r="D5">
-        <v>0.06</v>
+        <v>0.00921736215853863</v>
       </c>
       <c r="E5">
-        <v>0.98</v>
+        <v>0.77928607340372</v>
       </c>
       <c r="F5">
-        <v>0.18</v>
+        <v>0.0594938830232948</v>
       </c>
       <c r="G5">
-        <v>0.06</v>
+        <v>0.0630132394838277</v>
       </c>
       <c r="H5">
-        <v>0.18</v>
+        <v>0.0516172280878163</v>
       </c>
       <c r="I5">
-        <v>0.12</v>
+        <v>0.0977040388805095</v>
       </c>
       <c r="J5">
-        <v>0.06</v>
+        <v>0.0397184514831574</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.0336852689793866</v>
       </c>
       <c r="L5">
-        <v>0.71</v>
+        <v>0.945868945868946</v>
       </c>
       <c r="M5">
-        <v>0.68</v>
+        <v>0.75532093179152</v>
       </c>
       <c r="N5">
-        <v>0.2</v>
+        <v>0.0382101558572147</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.994972347913524</v>
       </c>
       <c r="P5">
-        <v>0.01</v>
+        <v>0.00888218535277359</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.00167588402882521</v>
       </c>
       <c r="R5">
-        <v>0.03</v>
+        <v>0.00318417965476789</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.00603318250377074</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.00100553041729512</v>
       </c>
       <c r="U5">
-        <v>0.69</v>
+        <v>0.683928272163566</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.00117311882017764</v>
       </c>
       <c r="W5">
-        <v>0.07</v>
+        <v>0.0177643707055472</v>
       </c>
       <c r="X5">
-        <v>0.02</v>
+        <v>0.00502765208647562</v>
       </c>
     </row>
   </sheetData>
